--- a/cleaning_data/categories_trans.xlsx
+++ b/cleaning_data/categories_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernasconi/Documents/EPFL/Applied Data Analysis/project/ADA-project/cleaning_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B35EB3-8458-CF43-9F22-6446C99E3FFA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82918DE-7837-4A4E-B0C7-112D0A4D348B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="2080" windowWidth="27640" windowHeight="16560" xr2:uid="{9B4A6447-013A-B64F-89CE-EDCA4BC6AEAF}"/>
   </bookViews>
